--- a/natmiOut/YoungD7/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H2">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J2">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.427094602961813</v>
+        <v>0.8478306666666667</v>
       </c>
       <c r="N2">
-        <v>0.427094602961813</v>
+        <v>2.543492</v>
       </c>
       <c r="O2">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="P2">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="Q2">
-        <v>46.13126172458404</v>
+        <v>93.99087029558179</v>
       </c>
       <c r="R2">
-        <v>46.13126172458404</v>
+        <v>845.9178326602359</v>
       </c>
       <c r="S2">
-        <v>0.001921377081347861</v>
+        <v>0.00366517074901325</v>
       </c>
       <c r="T2">
-        <v>0.001921377081347861</v>
+        <v>0.00366517074901325</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H3">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J3">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.00556545766106</v>
+        <v>7.020353</v>
       </c>
       <c r="N3">
-        <v>7.00556545766106</v>
+        <v>21.061059</v>
       </c>
       <c r="O3">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="P3">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="Q3">
-        <v>756.6838152833394</v>
+        <v>778.2793359509664</v>
       </c>
       <c r="R3">
-        <v>756.6838152833394</v>
+        <v>7004.514023558697</v>
       </c>
       <c r="S3">
-        <v>0.03151604543557227</v>
+        <v>0.03034897589221521</v>
       </c>
       <c r="T3">
-        <v>0.03151604543557227</v>
+        <v>0.03034897589221521</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H4">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J4">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.04735402990028</v>
+        <v>1.462291666666667</v>
       </c>
       <c r="N4">
-        <v>1.04735402990028</v>
+        <v>4.386875</v>
       </c>
       <c r="O4">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="P4">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="Q4">
-        <v>113.1266059944747</v>
+        <v>162.1102795400694</v>
       </c>
       <c r="R4">
-        <v>113.1266059944747</v>
+        <v>1458.992515860625</v>
       </c>
       <c r="S4">
-        <v>0.004711747737275077</v>
+        <v>0.00632148476565977</v>
       </c>
       <c r="T4">
-        <v>0.004711747737275077</v>
+        <v>0.00632148476565977</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>108.011811445692</v>
+        <v>110.8604276666667</v>
       </c>
       <c r="H5">
-        <v>108.011811445692</v>
+        <v>332.581283</v>
       </c>
       <c r="I5">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="J5">
-        <v>0.2570992851767367</v>
+        <v>0.2509786052589675</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.6694742583723</v>
+        <v>48.72612633333333</v>
       </c>
       <c r="N5">
-        <v>48.6694742583723</v>
+        <v>146.178379</v>
       </c>
       <c r="O5">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="P5">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="Q5">
-        <v>5256.878076756269</v>
+        <v>5401.799203853362</v>
       </c>
       <c r="R5">
-        <v>5256.878076756269</v>
+        <v>48616.19283468026</v>
       </c>
       <c r="S5">
-        <v>0.2189501149225415</v>
+        <v>0.2106429738520793</v>
       </c>
       <c r="T5">
-        <v>0.2189501149225415</v>
+        <v>0.2106429738520793</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H6">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J6">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.427094602961813</v>
+        <v>0.8478306666666667</v>
       </c>
       <c r="N6">
-        <v>0.427094602961813</v>
+        <v>2.543492</v>
       </c>
       <c r="O6">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="P6">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="Q6">
-        <v>78.25489702369654</v>
+        <v>156.714548217528</v>
       </c>
       <c r="R6">
-        <v>78.25489702369654</v>
+        <v>1410.430933957752</v>
       </c>
       <c r="S6">
-        <v>0.003259333476336284</v>
+        <v>0.006111078408630401</v>
       </c>
       <c r="T6">
-        <v>0.003259333476336284</v>
+        <v>0.0061110784086304</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H7">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J7">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.00556545766106</v>
+        <v>7.020353</v>
       </c>
       <c r="N7">
-        <v>7.00556545766106</v>
+        <v>21.061059</v>
       </c>
       <c r="O7">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="P7">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="Q7">
-        <v>1283.60274206286</v>
+        <v>1297.654699196106</v>
       </c>
       <c r="R7">
-        <v>1283.60274206286</v>
+        <v>11678.89229276495</v>
       </c>
       <c r="S7">
-        <v>0.05346233330619113</v>
+        <v>0.05060200028849745</v>
       </c>
       <c r="T7">
-        <v>0.05346233330619113</v>
+        <v>0.05060200028849745</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H8">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I8">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J8">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.04735402990028</v>
+        <v>1.462291666666667</v>
       </c>
       <c r="N8">
-        <v>1.04735402990028</v>
+        <v>4.386875</v>
       </c>
       <c r="O8">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="P8">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="Q8">
-        <v>191.902639810525</v>
+        <v>270.29262671625</v>
       </c>
       <c r="R8">
-        <v>191.902639810525</v>
+        <v>2432.63364044625</v>
       </c>
       <c r="S8">
-        <v>0.007992786674325915</v>
+        <v>0.01054005166670879</v>
       </c>
       <c r="T8">
-        <v>0.007992786674325915</v>
+        <v>0.01054005166670879</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>183.226143531234</v>
+        <v>184.841802</v>
       </c>
       <c r="H9">
-        <v>183.226143531234</v>
+        <v>554.525406</v>
       </c>
       <c r="I9">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="J9">
-        <v>0.4361311035993117</v>
+        <v>0.4184661617850055</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>48.6694742583723</v>
+        <v>48.72612633333333</v>
       </c>
       <c r="N9">
-        <v>48.6694742583723</v>
+        <v>146.178379</v>
       </c>
       <c r="O9">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="P9">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="Q9">
-        <v>8917.520076054221</v>
+        <v>9006.624995932985</v>
       </c>
       <c r="R9">
-        <v>8917.520076054221</v>
+        <v>81059.62496339687</v>
       </c>
       <c r="S9">
-        <v>0.3714166501424583</v>
+        <v>0.3512130314211688</v>
       </c>
       <c r="T9">
-        <v>0.3714166501424583</v>
+        <v>0.3512130314211688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H10">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J10">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.427094602961813</v>
+        <v>0.8478306666666667</v>
       </c>
       <c r="N10">
-        <v>0.427094602961813</v>
+        <v>2.543492</v>
       </c>
       <c r="O10">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="P10">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="Q10">
-        <v>34.27030303378073</v>
+        <v>80.74040374253778</v>
       </c>
       <c r="R10">
-        <v>34.27030303378073</v>
+        <v>726.66363368284</v>
       </c>
       <c r="S10">
-        <v>0.001427365572896567</v>
+        <v>0.003148469262280893</v>
       </c>
       <c r="T10">
-        <v>0.001427365572896567</v>
+        <v>0.003148469262280893</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H11">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I11">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J11">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.00556545766106</v>
+        <v>7.020353</v>
       </c>
       <c r="N11">
-        <v>7.00556545766106</v>
+        <v>21.061059</v>
       </c>
       <c r="O11">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="P11">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="Q11">
-        <v>562.1303792932673</v>
+        <v>668.5605486101034</v>
       </c>
       <c r="R11">
-        <v>562.1303792932673</v>
+        <v>6017.04493749093</v>
       </c>
       <c r="S11">
-        <v>0.02341285252399419</v>
+        <v>0.02607049555987766</v>
       </c>
       <c r="T11">
-        <v>0.02341285252399419</v>
+        <v>0.02607049555987766</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H12">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J12">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.04735402990028</v>
+        <v>1.462291666666667</v>
       </c>
       <c r="N12">
-        <v>1.04735402990028</v>
+        <v>4.386875</v>
       </c>
       <c r="O12">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="P12">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="Q12">
-        <v>84.04025651324675</v>
+        <v>139.2566041756944</v>
       </c>
       <c r="R12">
-        <v>84.04025651324675</v>
+        <v>1253.30943758125</v>
       </c>
       <c r="S12">
-        <v>0.003500294957011683</v>
+        <v>0.005430306482178238</v>
       </c>
       <c r="T12">
-        <v>0.003500294957011683</v>
+        <v>0.005430306482178239</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>80.2405434208797</v>
+        <v>95.23175666666667</v>
       </c>
       <c r="H13">
-        <v>80.2405434208797</v>
+        <v>285.69527</v>
       </c>
       <c r="I13">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="J13">
-        <v>0.1909956520456438</v>
+        <v>0.2155966197102082</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>48.6694742583723</v>
+        <v>48.72612633333333</v>
       </c>
       <c r="N13">
-        <v>48.6694742583723</v>
+        <v>146.178379</v>
       </c>
       <c r="O13">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="P13">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="Q13">
-        <v>3905.265062500309</v>
+        <v>4640.274606285259</v>
       </c>
       <c r="R13">
-        <v>3905.265062500309</v>
+        <v>41762.47145656733</v>
       </c>
       <c r="S13">
-        <v>0.1626551389917414</v>
+        <v>0.1809473484058714</v>
       </c>
       <c r="T13">
-        <v>0.1626551389917414</v>
+        <v>0.1809473484058715</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H14">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I14">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J14">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.427094602961813</v>
+        <v>0.8478306666666667</v>
       </c>
       <c r="N14">
-        <v>0.427094602961813</v>
+        <v>2.543492</v>
       </c>
       <c r="O14">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="P14">
-        <v>0.007473288305827285</v>
+        <v>0.01460351867535248</v>
       </c>
       <c r="Q14">
-        <v>20.77329311932712</v>
+        <v>43.0517178777</v>
       </c>
       <c r="R14">
-        <v>20.77329311932712</v>
+        <v>387.4654608993</v>
       </c>
       <c r="S14">
-        <v>0.0008652121752465731</v>
+        <v>0.001678800255427938</v>
       </c>
       <c r="T14">
-        <v>0.0008652121752465731</v>
+        <v>0.001678800255427938</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H15">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I15">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J15">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.00556545766106</v>
+        <v>7.020353</v>
       </c>
       <c r="N15">
-        <v>7.00556545766106</v>
+        <v>21.061059</v>
       </c>
       <c r="O15">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="P15">
-        <v>0.122583170209545</v>
+        <v>0.1209225617494376</v>
       </c>
       <c r="Q15">
-        <v>340.7410529409993</v>
+        <v>356.484223372275</v>
       </c>
       <c r="R15">
-        <v>340.7410529409993</v>
+        <v>3208.358010350475</v>
       </c>
       <c r="S15">
-        <v>0.01419193894378742</v>
+        <v>0.01390109000884723</v>
       </c>
       <c r="T15">
-        <v>0.01419193894378742</v>
+        <v>0.01390109000884724</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H16">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I16">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J16">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.04735402990028</v>
+        <v>1.462291666666667</v>
       </c>
       <c r="N16">
-        <v>1.04735402990028</v>
+        <v>4.386875</v>
       </c>
       <c r="O16">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="P16">
-        <v>0.01832656879631579</v>
+        <v>0.02518734518879435</v>
       </c>
       <c r="Q16">
-        <v>50.94185717156517</v>
+        <v>74.253233296875</v>
       </c>
       <c r="R16">
-        <v>50.94185717156517</v>
+        <v>668.279099671875</v>
       </c>
       <c r="S16">
-        <v>0.002121739427703113</v>
+        <v>0.002895502274247544</v>
       </c>
       <c r="T16">
-        <v>0.002121739427703113</v>
+        <v>0.002895502274247544</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>48.6386223924831</v>
+        <v>50.778675</v>
       </c>
       <c r="H17">
-        <v>48.6386223924831</v>
+        <v>152.336025</v>
       </c>
       <c r="I17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="J17">
-        <v>0.1157739591783078</v>
+        <v>0.1149586132458188</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.6694742583723</v>
+        <v>48.72612633333333</v>
       </c>
       <c r="N17">
-        <v>48.6694742583723</v>
+        <v>146.178379</v>
       </c>
       <c r="O17">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="P17">
-        <v>0.8516169726883119</v>
+        <v>0.8392865743864156</v>
       </c>
       <c r="Q17">
-        <v>2367.216180493647</v>
+        <v>2474.248133089275</v>
       </c>
       <c r="R17">
-        <v>2367.216180493647</v>
+        <v>22268.23319780348</v>
       </c>
       <c r="S17">
-        <v>0.09859506863157068</v>
+        <v>0.09648322070729608</v>
       </c>
       <c r="T17">
-        <v>0.09859506863157068</v>
+        <v>0.09648322070729608</v>
       </c>
     </row>
   </sheetData>
